--- a/docu/TestUploadFolder/admin/Man_Gal_1.xlsx
+++ b/docu/TestUploadFolder/admin/Man_Gal_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013B7682-248C-4432-8249-0DB21FA43B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-6360" windowWidth="15240" windowHeight="11325"/>
+    <workbookView xWindow="31425" yWindow="1230" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discontinual" sheetId="1" r:id="rId1"/>
@@ -13,17 +14,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,7 +369,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,19 +646,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -690,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -704,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -718,7 +708,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -729,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -740,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -751,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -759,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -770,7 +760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -783,7 +773,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -796,7 +786,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -809,7 +799,7 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -822,7 +812,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -835,7 +825,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -848,7 +838,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -861,7 +851,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -874,7 +864,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -887,7 +877,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -900,7 +890,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -913,7 +903,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>22</v>
       </c>
@@ -926,7 +916,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>24</v>
       </c>
@@ -939,7 +929,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>26</v>
       </c>
@@ -952,7 +942,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -965,7 +955,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>30</v>
       </c>
@@ -978,7 +968,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>32</v>
       </c>
@@ -991,7 +981,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>34</v>
       </c>
@@ -1004,7 +994,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>36</v>
       </c>
@@ -1017,7 +1007,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>38</v>
       </c>
@@ -1030,7 +1020,7 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43</v>
       </c>
@@ -1043,7 +1033,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>48</v>
       </c>
@@ -1056,7 +1046,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>53</v>
       </c>
@@ -1069,7 +1059,7 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>58</v>
       </c>
@@ -1082,7 +1072,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>63</v>
       </c>
@@ -1095,7 +1085,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>68</v>
       </c>
@@ -1108,7 +1098,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>73</v>
       </c>
@@ -1120,7 +1110,7 @@
       </c>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>78</v>
       </c>
@@ -1132,7 +1122,7 @@
       </c>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>83</v>
       </c>
@@ -1144,7 +1134,7 @@
       </c>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>88</v>
       </c>
@@ -1156,7 +1146,7 @@
       </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>103</v>
       </c>
@@ -1168,7 +1158,7 @@
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>118</v>
       </c>
@@ -1180,7 +1170,7 @@
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>133</v>
       </c>
@@ -1192,7 +1182,7 @@
       </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>148</v>
       </c>
@@ -1203,7 +1193,7 @@
         <v>1.0206465E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>163</v>
       </c>
@@ -1214,7 +1204,7 @@
         <v>6.2291040000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>178</v>
       </c>
@@ -1225,1263 +1215,1263 @@
         <v>3.7342249999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="15"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="15"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="15"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="15"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="15"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="15"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66" s="15"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E228" s="15"/>
       <c r="F228" s="15"/>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E238" s="15"/>
       <c r="F238" s="15"/>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
     </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
     </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E243" s="15"/>
       <c r="F243" s="15"/>
     </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
     </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
     </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
     </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E253" s="15"/>
       <c r="F253" s="15"/>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
     </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
     </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
     </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
     </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
     </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
     </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
     </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
     </row>
-    <row r="266" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
     </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
     </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E268" s="15"/>
       <c r="F268" s="15"/>
     </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
     </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
     </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
     </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E273" s="15"/>
       <c r="F273" s="15"/>
     </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
     </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
     </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
     </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
     </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E278" s="15"/>
       <c r="F278" s="15"/>
     </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
     </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
     </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
     </row>
-    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
     </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
     </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
     </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
     </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
     </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
     </row>
-    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
     </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
     </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
     </row>
-    <row r="291" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
     </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
     </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
     </row>
-    <row r="294" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
     </row>
-    <row r="295" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
     </row>
-    <row r="296" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
     </row>
-    <row r="297" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E298" s="15"/>
       <c r="F298" s="15"/>
     </row>
-    <row r="299" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
     </row>
-    <row r="300" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
     </row>
-    <row r="301" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
     </row>
-    <row r="302" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
     </row>
-    <row r="303" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E303" s="15"/>
       <c r="F303" s="15"/>
     </row>
-    <row r="304" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
     </row>
-    <row r="305" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
     </row>
-    <row r="306" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
     </row>
-    <row r="307" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
     </row>
-    <row r="308" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
     </row>
-    <row r="309" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
     </row>
-    <row r="310" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
     </row>
-    <row r="311" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
     </row>
-    <row r="312" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
     </row>
-    <row r="313" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E313" s="15"/>
       <c r="F313" s="15"/>
     </row>
-    <row r="314" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
     </row>
-    <row r="315" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
     </row>
-    <row r="316" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
     </row>
-    <row r="317" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
     </row>
-    <row r="318" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E318" s="15"/>
       <c r="F318" s="15"/>
     </row>
-    <row r="319" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
     </row>
-    <row r="320" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
     </row>
-    <row r="321" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
     </row>
-    <row r="322" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
     </row>
-    <row r="323" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E323" s="15"/>
       <c r="F323" s="15"/>
     </row>
-    <row r="324" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="325" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
     </row>
-    <row r="326" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
     </row>
-    <row r="329" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
     </row>
-    <row r="330" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
     </row>
-    <row r="331" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E331" s="15"/>
       <c r="F331" s="15"/>
     </row>
-    <row r="332" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
     </row>
-    <row r="333" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E333" s="15"/>
       <c r="F333" s="15"/>
     </row>
-    <row r="334" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E334" s="15"/>
       <c r="F334" s="15"/>
     </row>
-    <row r="335" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E335" s="15"/>
       <c r="F335" s="15"/>
     </row>
-    <row r="336" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E336" s="15"/>
       <c r="F336" s="15"/>
     </row>
-    <row r="337" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E337" s="15"/>
       <c r="F337" s="15"/>
     </row>
-    <row r="338" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E338" s="15"/>
       <c r="F338" s="15"/>
     </row>
-    <row r="339" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E339" s="15"/>
       <c r="F339" s="15"/>
     </row>
-    <row r="340" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E340" s="15"/>
       <c r="F340" s="15"/>
     </row>
-    <row r="341" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E341" s="15"/>
       <c r="F341" s="15"/>
     </row>
-    <row r="342" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
     </row>
-    <row r="343" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E343" s="15"/>
       <c r="F343" s="15"/>
     </row>
-    <row r="344" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E344" s="15"/>
       <c r="F344" s="15"/>
     </row>
-    <row r="345" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E345" s="15"/>
       <c r="F345" s="15"/>
     </row>
-    <row r="346" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E346" s="15"/>
       <c r="F346" s="15"/>
     </row>
-    <row r="347" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E347" s="15"/>
       <c r="F347" s="15"/>
     </row>
-    <row r="348" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E348" s="15"/>
       <c r="F348" s="15"/>
     </row>
-    <row r="349" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
     </row>
-    <row r="350" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
     </row>
-    <row r="351" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E351" s="15"/>
       <c r="F351" s="15"/>
     </row>
-    <row r="352" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E352" s="15"/>
       <c r="F352" s="15"/>
     </row>
-    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
     </row>
-    <row r="354" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
     </row>
-    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
     </row>
-    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
     </row>
-    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
     </row>
-    <row r="358" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
     </row>
-    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
     </row>
-    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
     </row>
-    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
     </row>
-    <row r="362" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
     </row>
-    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E363" s="15"/>
       <c r="F363" s="15"/>
     </row>
-    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E364" s="15"/>
       <c r="F364" s="15"/>
     </row>
-    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E365" s="15"/>
       <c r="F365" s="15"/>
     </row>
-    <row r="366" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E366" s="15"/>
       <c r="F366" s="15"/>
     </row>
-    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E367" s="15"/>
       <c r="F367" s="15"/>
     </row>
-    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E368" s="15"/>
       <c r="F368" s="15"/>
     </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E369" s="15"/>
       <c r="F369" s="15"/>
     </row>
-    <row r="370" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E370" s="15"/>
       <c r="F370" s="15"/>
     </row>
